--- a/Code/Results/Cases/Case_4_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_86/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9745761749636679</v>
+        <v>1.044118180872593</v>
       </c>
       <c r="D2">
-        <v>0.9958964729855104</v>
+        <v>1.043145357024273</v>
       </c>
       <c r="E2">
-        <v>0.982934294102783</v>
+        <v>1.047781559638126</v>
       </c>
       <c r="F2">
-        <v>0.9852791042269269</v>
+        <v>1.050528413494059</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033971329107041</v>
+        <v>1.038441739157099</v>
       </c>
       <c r="J2">
-        <v>0.9975448418773115</v>
+        <v>1.049184980738676</v>
       </c>
       <c r="K2">
-        <v>1.007413274051963</v>
+        <v>1.0459200483339</v>
       </c>
       <c r="L2">
-        <v>0.9946366150401493</v>
+        <v>1.050543237551709</v>
       </c>
       <c r="M2">
-        <v>0.9969474070004484</v>
+        <v>1.053282439988449</v>
       </c>
       <c r="N2">
-        <v>0.9989614699727698</v>
+        <v>1.050674943754525</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9873874337992613</v>
+        <v>1.046226395171011</v>
       </c>
       <c r="D3">
-        <v>1.005816971065557</v>
+        <v>1.044740007509215</v>
       </c>
       <c r="E3">
-        <v>0.9951577231452429</v>
+        <v>1.049841109345477</v>
       </c>
       <c r="F3">
-        <v>0.9976795537768653</v>
+        <v>1.052644204640203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038871398262324</v>
+        <v>1.039080072354664</v>
       </c>
       <c r="J3">
-        <v>1.008227936844682</v>
+        <v>1.050934588122546</v>
       </c>
       <c r="K3">
-        <v>1.016375959804586</v>
+        <v>1.047323625396632</v>
       </c>
       <c r="L3">
-        <v>1.005852939058523</v>
+        <v>1.052411471262011</v>
       </c>
       <c r="M3">
-        <v>1.008342211500254</v>
+        <v>1.055207341307905</v>
       </c>
       <c r="N3">
-        <v>1.009659736160362</v>
+        <v>1.052427035781562</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9952393599717694</v>
+        <v>1.047583123689852</v>
       </c>
       <c r="D4">
-        <v>1.011894840458407</v>
+        <v>1.045764991823851</v>
       </c>
       <c r="E4">
-        <v>1.002656052450072</v>
+        <v>1.051166763208405</v>
       </c>
       <c r="F4">
-        <v>1.00529272668548</v>
+        <v>1.054006664732413</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041852670279292</v>
+        <v>1.039488231783777</v>
       </c>
       <c r="J4">
-        <v>1.014765632374318</v>
+        <v>1.052059186050509</v>
       </c>
       <c r="K4">
-        <v>1.021851794084823</v>
+        <v>1.048224510120399</v>
       </c>
       <c r="L4">
-        <v>1.012722526613446</v>
+        <v>1.053612968247858</v>
       </c>
       <c r="M4">
-        <v>1.015327690132883</v>
+        <v>1.056445929379291</v>
       </c>
       <c r="N4">
-        <v>1.016206715967535</v>
+        <v>1.053553230767575</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9984457855484401</v>
+        <v>1.048151752619412</v>
       </c>
       <c r="D5">
-        <v>1.014375998036974</v>
+        <v>1.04619428180151</v>
       </c>
       <c r="E5">
-        <v>1.005719528345733</v>
+        <v>1.051722425750708</v>
       </c>
       <c r="F5">
-        <v>1.008404579186468</v>
+        <v>1.054577899773763</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043064750827884</v>
+        <v>1.039658666571405</v>
       </c>
       <c r="J5">
-        <v>1.017432901982489</v>
+        <v>1.05253020088263</v>
       </c>
       <c r="K5">
-        <v>1.024083630168049</v>
+        <v>1.048601516519301</v>
       </c>
       <c r="L5">
-        <v>1.015526529589531</v>
+        <v>1.054116346346991</v>
       </c>
       <c r="M5">
-        <v>1.0181805328565</v>
+        <v>1.056965001887149</v>
       </c>
       <c r="N5">
-        <v>1.018877773404489</v>
+        <v>1.054024914494785</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9989788838909076</v>
+        <v>1.048247127004992</v>
       </c>
       <c r="D6">
-        <v>1.014788459341571</v>
+        <v>1.046266267706218</v>
       </c>
       <c r="E6">
-        <v>1.006228940945253</v>
+        <v>1.051815628680786</v>
       </c>
       <c r="F6">
-        <v>1.008922120745495</v>
+        <v>1.054673723209385</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043265952742717</v>
+        <v>1.039687215970475</v>
       </c>
       <c r="J6">
-        <v>1.017876212243618</v>
+        <v>1.052609183729512</v>
       </c>
       <c r="K6">
-        <v>1.024454438245955</v>
+        <v>1.048664717165461</v>
       </c>
       <c r="L6">
-        <v>1.01599264333127</v>
+        <v>1.054200765216334</v>
       </c>
       <c r="M6">
-        <v>1.018654854608655</v>
+        <v>1.05705206185702</v>
       </c>
       <c r="N6">
-        <v>1.019321713217038</v>
+        <v>1.054104009506369</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9952825634449437</v>
+        <v>1.047590728522164</v>
       </c>
       <c r="D7">
-        <v>1.01192827518298</v>
+        <v>1.045770734318171</v>
       </c>
       <c r="E7">
-        <v>1.002697324257492</v>
+        <v>1.05117419440297</v>
       </c>
       <c r="F7">
-        <v>1.005334644494419</v>
+        <v>1.054014303617854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041869023302651</v>
+        <v>1.039490513663058</v>
       </c>
       <c r="J7">
-        <v>1.014801581206431</v>
+        <v>1.052065486669322</v>
       </c>
       <c r="K7">
-        <v>1.021881883102824</v>
+        <v>1.048229554441429</v>
       </c>
       <c r="L7">
-        <v>1.012760313038977</v>
+        <v>1.053619701167196</v>
       </c>
       <c r="M7">
-        <v>1.015366128661173</v>
+        <v>1.056452871610024</v>
       </c>
       <c r="N7">
-        <v>1.016242715851112</v>
+        <v>1.053559540333991</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9790032186281701</v>
+        <v>1.044832222844307</v>
       </c>
       <c r="D8">
-        <v>0.999324917903223</v>
+        <v>1.043685714961832</v>
       </c>
       <c r="E8">
-        <v>0.9871566681546154</v>
+        <v>1.048479068214722</v>
       </c>
       <c r="F8">
-        <v>0.9895612569751007</v>
+        <v>1.051244843344679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035669238335571</v>
+        <v>1.038658486786227</v>
       </c>
       <c r="J8">
-        <v>1.001238534215909</v>
+        <v>1.049777844793085</v>
       </c>
       <c r="K8">
-        <v>1.010514041376187</v>
+        <v>1.046395926969798</v>
       </c>
       <c r="L8">
-        <v>0.9985134676507414</v>
+        <v>1.051176163818944</v>
       </c>
       <c r="M8">
-        <v>1.000884509261848</v>
+        <v>1.053934429659831</v>
       </c>
       <c r="N8">
-        <v>1.002660407778161</v>
+        <v>1.051268649743893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9463841045105658</v>
+        <v>1.039912759611939</v>
       </c>
       <c r="D9">
-        <v>0.9740668882883436</v>
+        <v>1.039957771015921</v>
       </c>
       <c r="E9">
-        <v>0.9560847129125467</v>
+        <v>1.04367454725389</v>
       </c>
       <c r="F9">
-        <v>0.9580801984718188</v>
+        <v>1.046312509637343</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023063678778306</v>
+        <v>1.037154300038514</v>
       </c>
       <c r="J9">
-        <v>0.973983392809308</v>
+        <v>1.045687672574742</v>
       </c>
       <c r="K9">
-        <v>0.9875952083953834</v>
+        <v>1.043107491859093</v>
       </c>
       <c r="L9">
-        <v>0.9699328738306777</v>
+        <v>1.046812291251512</v>
       </c>
       <c r="M9">
-        <v>0.9718920963009117</v>
+        <v>1.049441809633731</v>
       </c>
       <c r="N9">
-        <v>0.9753665609445539</v>
+        <v>1.04717266901185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9209099894667213</v>
+        <v>1.036591240342679</v>
       </c>
       <c r="D10">
-        <v>0.9543679675662923</v>
+        <v>1.037434378865257</v>
       </c>
       <c r="E10">
-        <v>0.9318844926773286</v>
+        <v>1.040431966687876</v>
       </c>
       <c r="F10">
-        <v>0.9336057117898922</v>
+        <v>1.042986855234296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013101195420453</v>
+        <v>1.036125024303177</v>
       </c>
       <c r="J10">
-        <v>0.9526553814214611</v>
+        <v>1.042919065936154</v>
       </c>
       <c r="K10">
-        <v>0.9696130778997138</v>
+        <v>1.040874860388977</v>
       </c>
       <c r="L10">
-        <v>0.9476030598418034</v>
+        <v>1.043861804744564</v>
       </c>
       <c r="M10">
-        <v>0.9492869636426048</v>
+        <v>1.046407674935259</v>
       </c>
       <c r="N10">
-        <v>0.954008261334179</v>
+        <v>1.044400130634273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9086281274493565</v>
+        <v>1.035142497325875</v>
       </c>
       <c r="D11">
-        <v>0.9448867534307851</v>
+        <v>1.036332262681696</v>
       </c>
       <c r="E11">
-        <v>0.9202387180618057</v>
+        <v>1.039017979857524</v>
       </c>
       <c r="F11">
-        <v>0.9218401635708969</v>
+        <v>1.041537403082823</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.008273137836833</v>
+        <v>1.035672850496819</v>
       </c>
       <c r="J11">
-        <v>0.9423664596861147</v>
+        <v>1.041709829458953</v>
       </c>
       <c r="K11">
-        <v>0.9609286551183044</v>
+        <v>1.039898134920864</v>
       </c>
       <c r="L11">
-        <v>0.9368397264303531</v>
+        <v>1.042573931198975</v>
       </c>
       <c r="M11">
-        <v>0.9384036290883409</v>
+        <v>1.045084099225069</v>
       </c>
       <c r="N11">
-        <v>0.9437047281498124</v>
+        <v>1.043189176902572</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9038317414074641</v>
+        <v>1.034602743288098</v>
       </c>
       <c r="D12">
-        <v>0.9411877430086066</v>
+        <v>1.035921427873246</v>
       </c>
       <c r="E12">
-        <v>0.9156947814418985</v>
+        <v>1.038491224564911</v>
       </c>
       <c r="F12">
-        <v>0.9172515136439243</v>
+        <v>1.040997550469019</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.006384359172163</v>
+        <v>1.035503900027239</v>
       </c>
       <c r="J12">
-        <v>0.9383480033029983</v>
+        <v>1.041259059261118</v>
       </c>
       <c r="K12">
-        <v>0.9575356344955073</v>
+        <v>1.039533800887574</v>
       </c>
       <c r="L12">
-        <v>0.9326373573656095</v>
+        <v>1.042093967679287</v>
       </c>
       <c r="M12">
-        <v>0.9341565016782657</v>
+        <v>1.04459095221554</v>
       </c>
       <c r="N12">
-        <v>0.939680565097709</v>
+        <v>1.042737766559352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9048721314696855</v>
+        <v>1.03471859674529</v>
       </c>
       <c r="D13">
-        <v>0.9419899122636438</v>
+        <v>1.03600961999317</v>
       </c>
       <c r="E13">
-        <v>0.9166802162473844</v>
+        <v>1.038604285693088</v>
       </c>
       <c r="F13">
-        <v>0.9182465510814023</v>
+        <v>1.041113417573903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.006794195771384</v>
+        <v>1.035540185701462</v>
       </c>
       <c r="J13">
-        <v>0.9392196572034258</v>
+        <v>1.04135582434891</v>
       </c>
       <c r="K13">
-        <v>0.9582716737558464</v>
+        <v>1.039612021794556</v>
       </c>
       <c r="L13">
-        <v>0.9335488418138767</v>
+        <v>1.042196994138876</v>
       </c>
       <c r="M13">
-        <v>0.935077596537476</v>
+        <v>1.044696803053206</v>
       </c>
       <c r="N13">
-        <v>0.9405534568466554</v>
+        <v>1.042834669064668</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9082367702462034</v>
+        <v>1.035097914549701</v>
       </c>
       <c r="D14">
-        <v>0.9445848541373127</v>
+        <v>1.036298332943717</v>
       </c>
       <c r="E14">
-        <v>0.9198678730542132</v>
+        <v>1.038974469737545</v>
       </c>
       <c r="F14">
-        <v>0.921465627593237</v>
+        <v>1.041492808782053</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.008119087551394</v>
+        <v>1.035658905359446</v>
       </c>
       <c r="J14">
-        <v>0.9420385805423847</v>
+        <v>1.041672601658599</v>
       </c>
       <c r="K14">
-        <v>0.9606518302401157</v>
+        <v>1.039868050469332</v>
       </c>
       <c r="L14">
-        <v>0.9364968134188991</v>
+        <v>1.042534289953701</v>
       </c>
       <c r="M14">
-        <v>0.9380570205445958</v>
+        <v>1.045043366639303</v>
       </c>
       <c r="N14">
-        <v>0.9433763833800902</v>
+        <v>1.043151896234472</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9102770913635659</v>
+        <v>1.035331407793386</v>
       </c>
       <c r="D15">
-        <v>0.9461589454287052</v>
+        <v>1.03647602396822</v>
       </c>
       <c r="E15">
-        <v>0.9218014219300504</v>
+        <v>1.039202347201084</v>
       </c>
       <c r="F15">
-        <v>0.9234185030656088</v>
+        <v>1.041726369164957</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008922091750994</v>
+        <v>1.035731920338691</v>
       </c>
       <c r="J15">
-        <v>0.9437479510275614</v>
+        <v>1.041867564550498</v>
       </c>
       <c r="K15">
-        <v>0.9620949861996549</v>
+        <v>1.040025593759344</v>
       </c>
       <c r="L15">
-        <v>0.9382846170782769</v>
+        <v>1.042741897039011</v>
       </c>
       <c r="M15">
-        <v>0.9398641763518769</v>
+        <v>1.045256694226292</v>
       </c>
       <c r="N15">
-        <v>0.9450881813674232</v>
+        <v>1.04334713599604</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9216951539338456</v>
+        <v>1.03668716324626</v>
       </c>
       <c r="D16">
-        <v>0.9549745070249243</v>
+        <v>1.037507320015125</v>
       </c>
       <c r="E16">
-        <v>0.9326294894400555</v>
+        <v>1.040525595254721</v>
       </c>
       <c r="F16">
-        <v>0.9343586304136905</v>
+        <v>1.043082848185053</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013409379938931</v>
+        <v>1.036154895325005</v>
       </c>
       <c r="J16">
-        <v>0.9533130583935128</v>
+        <v>1.042999096078111</v>
       </c>
       <c r="K16">
-        <v>0.9701680172862501</v>
+        <v>1.040939469164661</v>
       </c>
       <c r="L16">
-        <v>0.9482912432439115</v>
+        <v>1.043947056108943</v>
       </c>
       <c r="M16">
-        <v>0.9499830892334271</v>
+        <v>1.046495306653939</v>
       </c>
       <c r="N16">
-        <v>0.9546668722829678</v>
+        <v>1.044480274428211</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9284946166493027</v>
+        <v>1.037534746951478</v>
       </c>
       <c r="D17">
-        <v>0.9602289585116732</v>
+        <v>1.038151663367</v>
       </c>
       <c r="E17">
-        <v>0.9390835486776129</v>
+        <v>1.04135294355766</v>
       </c>
       <c r="F17">
-        <v>0.9408826646075704</v>
+        <v>1.043931176938158</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016075565255742</v>
+        <v>1.03641846615495</v>
       </c>
       <c r="J17">
-        <v>0.9590078760624041</v>
+        <v>1.043706059261809</v>
       </c>
       <c r="K17">
-        <v>0.9749722043001197</v>
+        <v>1.041510022206393</v>
       </c>
       <c r="L17">
-        <v>0.9542511850652663</v>
+        <v>1.044700234296201</v>
       </c>
       <c r="M17">
-        <v>0.9560132127475227</v>
+        <v>1.047269607982832</v>
       </c>
       <c r="N17">
-        <v>0.9603697772461536</v>
+        <v>1.045188241580719</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9323437157618618</v>
+        <v>1.038028118090819</v>
       </c>
       <c r="D18">
-        <v>0.9632048214840122</v>
+        <v>1.038526586685194</v>
       </c>
       <c r="E18">
-        <v>0.9427390406843648</v>
+        <v>1.041834567068559</v>
       </c>
       <c r="F18">
-        <v>0.9445788795585215</v>
+        <v>1.044425086829593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017582588324905</v>
+        <v>1.036571577533758</v>
       </c>
       <c r="J18">
-        <v>0.9622310636808693</v>
+        <v>1.044117417223339</v>
       </c>
       <c r="K18">
-        <v>0.9776904243734774</v>
+        <v>1.041841855499204</v>
       </c>
       <c r="L18">
-        <v>0.9576252270145387</v>
+        <v>1.045138560204192</v>
       </c>
       <c r="M18">
-        <v>0.9594281198280838</v>
+        <v>1.04772030464315</v>
       </c>
       <c r="N18">
-        <v>0.9635975421607419</v>
+        <v>1.045600183717738</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9336374759218679</v>
+        <v>1.03819617501966</v>
       </c>
       <c r="D19">
-        <v>0.9642052745313168</v>
+        <v>1.038654272388935</v>
       </c>
       <c r="E19">
-        <v>0.9439680339693111</v>
+        <v>1.041998627676319</v>
       </c>
       <c r="F19">
-        <v>0.945821744581968</v>
+        <v>1.044593345058711</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018088733323895</v>
+        <v>1.03662367907622</v>
       </c>
       <c r="J19">
-        <v>0.9633143306848938</v>
+        <v>1.044257511001683</v>
       </c>
       <c r="K19">
-        <v>0.9786038240923048</v>
+        <v>1.041954840187489</v>
       </c>
       <c r="L19">
-        <v>0.9587593282943228</v>
+        <v>1.045287851361558</v>
       </c>
       <c r="M19">
-        <v>0.9605761448509827</v>
+        <v>1.047873822383485</v>
       </c>
       <c r="N19">
-        <v>0.9646823475281647</v>
+        <v>1.045740476445315</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9277774732373805</v>
+        <v>1.037443914067536</v>
       </c>
       <c r="D20">
-        <v>0.9596746172200609</v>
+        <v>1.038082625943931</v>
       </c>
       <c r="E20">
-        <v>0.9384026297336541</v>
+        <v>1.041264276000148</v>
       </c>
       <c r="F20">
-        <v>0.9401942480219495</v>
+        <v>1.043840253325071</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015794596504922</v>
+        <v>1.036390252276815</v>
       </c>
       <c r="J20">
-        <v>0.9584072982556558</v>
+        <v>1.043630312712999</v>
       </c>
       <c r="K20">
-        <v>0.9744656438639694</v>
+        <v>1.04144890688062</v>
       </c>
       <c r="L20">
-        <v>0.9536225634395953</v>
+        <v>1.044619528136277</v>
       </c>
       <c r="M20">
-        <v>0.9553770690307009</v>
+        <v>1.047186630339562</v>
       </c>
       <c r="N20">
-        <v>0.9597683465500327</v>
+        <v>1.045112387463121</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9072529001061127</v>
+        <v>1.034986260199809</v>
       </c>
       <c r="D21">
-        <v>0.9438259437698017</v>
+        <v>1.03621335477315</v>
       </c>
       <c r="E21">
-        <v>0.9189356378828477</v>
+        <v>1.038865502583414</v>
       </c>
       <c r="F21">
-        <v>0.9205241469475988</v>
+        <v>1.041381128247341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.007731755066399</v>
+        <v>1.035623972935534</v>
       </c>
       <c r="J21">
-        <v>0.9412142903063785</v>
+        <v>1.041579363307003</v>
       </c>
       <c r="K21">
-        <v>0.9599558722068844</v>
+        <v>1.039792699056955</v>
       </c>
       <c r="L21">
-        <v>0.9356347500075864</v>
+        <v>1.042435008986732</v>
       </c>
       <c r="M21">
-        <v>0.9371857008934632</v>
+        <v>1.044941354394293</v>
       </c>
       <c r="N21">
-        <v>0.9425509225574015</v>
+        <v>1.043058525473722</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8929540330003195</v>
+        <v>1.033431601286616</v>
       </c>
       <c r="D22">
-        <v>0.9328073921465868</v>
+        <v>1.035029605094553</v>
       </c>
       <c r="E22">
-        <v>0.9053982758665843</v>
+        <v>1.037348378816584</v>
       </c>
       <c r="F22">
-        <v>0.9068577368111399</v>
+        <v>1.039826499175029</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.002095282178708</v>
+        <v>1.035136428488244</v>
       </c>
       <c r="J22">
-        <v>0.9292346921219918</v>
+        <v>1.040280537328251</v>
       </c>
       <c r="K22">
-        <v>0.9498387782511891</v>
+        <v>1.038742478210631</v>
       </c>
       <c r="L22">
-        <v>0.9231095863670035</v>
+        <v>1.041052294007216</v>
       </c>
       <c r="M22">
-        <v>0.9245314408504381</v>
+        <v>1.043520889843572</v>
       </c>
       <c r="N22">
-        <v>0.9305543119695141</v>
+        <v>1.041757855013103</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9006870643216437</v>
+        <v>1.034256666068873</v>
       </c>
       <c r="D23">
-        <v>0.9387637652970117</v>
+        <v>1.035657948072766</v>
       </c>
       <c r="E23">
-        <v>0.9127168782385673</v>
+        <v>1.03815349593183</v>
       </c>
       <c r="F23">
-        <v>0.9142449061989704</v>
+        <v>1.040651456828984</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.005145149264519</v>
+        <v>1.035395436510987</v>
       </c>
       <c r="J23">
-        <v>0.935713347959664</v>
+        <v>1.040969966436188</v>
       </c>
       <c r="K23">
-        <v>0.9553107305323899</v>
+        <v>1.039300075422986</v>
       </c>
       <c r="L23">
-        <v>0.929882515772115</v>
+        <v>1.04178618617516</v>
       </c>
       <c r="M23">
-        <v>0.9313729388660922</v>
+        <v>1.0442747510406</v>
       </c>
       <c r="N23">
-        <v>0.9370421682415878</v>
+        <v>1.042448263189452</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9281018774900111</v>
+        <v>1.037484960656924</v>
       </c>
       <c r="D24">
-        <v>0.9599253726996735</v>
+        <v>1.038113823797872</v>
       </c>
       <c r="E24">
-        <v>0.9387106416614551</v>
+        <v>1.041304344000864</v>
       </c>
       <c r="F24">
-        <v>0.9405056480912304</v>
+        <v>1.043881340589297</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015921701600185</v>
+        <v>1.03640300284441</v>
       </c>
       <c r="J24">
-        <v>0.9586789752011414</v>
+        <v>1.043664542411295</v>
       </c>
       <c r="K24">
-        <v>0.9746947939569433</v>
+        <v>1.041476525232442</v>
       </c>
       <c r="L24">
-        <v>0.9539069237735046</v>
+        <v>1.044655998833693</v>
       </c>
       <c r="M24">
-        <v>0.9556648284873954</v>
+        <v>1.047224127268107</v>
       </c>
       <c r="N24">
-        <v>0.9600404093079423</v>
+        <v>1.045146665771515</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9553771846770799</v>
+        <v>1.041191756574579</v>
       </c>
       <c r="D25">
-        <v>0.9810286106927418</v>
+        <v>1.040928108952249</v>
       </c>
       <c r="E25">
-        <v>0.9646420814410593</v>
+        <v>1.044923430502456</v>
       </c>
       <c r="F25">
-        <v>0.9667434137563059</v>
+        <v>1.047594059376801</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026559038170887</v>
+        <v>1.037547769186421</v>
       </c>
       <c r="J25">
-        <v>0.981505608008985</v>
+        <v>1.046752294205976</v>
       </c>
       <c r="K25">
-        <v>0.9939287498949653</v>
+        <v>1.043964608781137</v>
       </c>
       <c r="L25">
-        <v>0.9778152582887443</v>
+        <v>1.0479475608015</v>
       </c>
       <c r="M25">
-        <v>0.9798809098593527</v>
+        <v>1.050609978817247</v>
       </c>
       <c r="N25">
-        <v>0.9828994585526246</v>
+        <v>1.048238802527915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_86/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044118180872593</v>
+        <v>0.9745761749636672</v>
       </c>
       <c r="D2">
-        <v>1.043145357024273</v>
+        <v>0.9958964729855099</v>
       </c>
       <c r="E2">
-        <v>1.047781559638126</v>
+        <v>0.9829342941027827</v>
       </c>
       <c r="F2">
-        <v>1.050528413494059</v>
+        <v>0.9852791042269261</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038441739157099</v>
+        <v>1.03397132910704</v>
       </c>
       <c r="J2">
-        <v>1.049184980738676</v>
+        <v>0.997544841877311</v>
       </c>
       <c r="K2">
-        <v>1.0459200483339</v>
+        <v>1.007413274051963</v>
       </c>
       <c r="L2">
-        <v>1.050543237551709</v>
+        <v>0.994636615040149</v>
       </c>
       <c r="M2">
-        <v>1.053282439988449</v>
+        <v>0.9969474070004477</v>
       </c>
       <c r="N2">
-        <v>1.050674943754525</v>
+        <v>0.9989614699727695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046226395171011</v>
+        <v>0.9873874337992603</v>
       </c>
       <c r="D3">
-        <v>1.044740007509215</v>
+        <v>1.005816971065556</v>
       </c>
       <c r="E3">
-        <v>1.049841109345477</v>
+        <v>0.9951577231452416</v>
       </c>
       <c r="F3">
-        <v>1.052644204640203</v>
+        <v>0.9976795537768645</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039080072354664</v>
+        <v>1.038871398262324</v>
       </c>
       <c r="J3">
-        <v>1.050934588122546</v>
+        <v>1.008227936844681</v>
       </c>
       <c r="K3">
-        <v>1.047323625396632</v>
+        <v>1.016375959804585</v>
       </c>
       <c r="L3">
-        <v>1.052411471262011</v>
+        <v>1.005852939058522</v>
       </c>
       <c r="M3">
-        <v>1.055207341307905</v>
+        <v>1.008342211500253</v>
       </c>
       <c r="N3">
-        <v>1.052427035781562</v>
+        <v>1.009659736160362</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047583123689852</v>
+        <v>0.9952393599717669</v>
       </c>
       <c r="D4">
-        <v>1.045764991823851</v>
+        <v>1.011894840458405</v>
       </c>
       <c r="E4">
-        <v>1.051166763208405</v>
+        <v>1.00265605245007</v>
       </c>
       <c r="F4">
-        <v>1.054006664732413</v>
+        <v>1.005292726685478</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039488231783777</v>
+        <v>1.04185267027929</v>
       </c>
       <c r="J4">
-        <v>1.052059186050509</v>
+        <v>1.014765632374316</v>
       </c>
       <c r="K4">
-        <v>1.048224510120399</v>
+        <v>1.021851794084821</v>
       </c>
       <c r="L4">
-        <v>1.053612968247858</v>
+        <v>1.012722526613443</v>
       </c>
       <c r="M4">
-        <v>1.056445929379291</v>
+        <v>1.015327690132881</v>
       </c>
       <c r="N4">
-        <v>1.053553230767575</v>
+        <v>1.016206715967532</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048151752619412</v>
+        <v>0.9984457855484377</v>
       </c>
       <c r="D5">
-        <v>1.04619428180151</v>
+        <v>1.014375998036971</v>
       </c>
       <c r="E5">
-        <v>1.051722425750708</v>
+        <v>1.005719528345731</v>
       </c>
       <c r="F5">
-        <v>1.054577899773763</v>
+        <v>1.008404579186465</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039658666571405</v>
+        <v>1.043064750827883</v>
       </c>
       <c r="J5">
-        <v>1.05253020088263</v>
+        <v>1.017432901982486</v>
       </c>
       <c r="K5">
-        <v>1.048601516519301</v>
+        <v>1.024083630168046</v>
       </c>
       <c r="L5">
-        <v>1.054116346346991</v>
+        <v>1.015526529589528</v>
       </c>
       <c r="M5">
-        <v>1.056965001887149</v>
+        <v>1.018180532856497</v>
       </c>
       <c r="N5">
-        <v>1.054024914494785</v>
+        <v>1.018877773404487</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048247127004992</v>
+        <v>0.9989788838909082</v>
       </c>
       <c r="D6">
-        <v>1.046266267706218</v>
+        <v>1.014788459341571</v>
       </c>
       <c r="E6">
-        <v>1.051815628680786</v>
+        <v>1.006228940945253</v>
       </c>
       <c r="F6">
-        <v>1.054673723209385</v>
+        <v>1.008922120745495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039687215970475</v>
+        <v>1.043265952742717</v>
       </c>
       <c r="J6">
-        <v>1.052609183729512</v>
+        <v>1.017876212243619</v>
       </c>
       <c r="K6">
-        <v>1.048664717165461</v>
+        <v>1.024454438245955</v>
       </c>
       <c r="L6">
-        <v>1.054200765216334</v>
+        <v>1.015992643331271</v>
       </c>
       <c r="M6">
-        <v>1.05705206185702</v>
+        <v>1.018654854608655</v>
       </c>
       <c r="N6">
-        <v>1.054104009506369</v>
+        <v>1.019321713217038</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047590728522164</v>
+        <v>0.9952825634449443</v>
       </c>
       <c r="D7">
-        <v>1.045770734318171</v>
+        <v>1.01192827518298</v>
       </c>
       <c r="E7">
-        <v>1.05117419440297</v>
+        <v>1.002697324257492</v>
       </c>
       <c r="F7">
-        <v>1.054014303617854</v>
+        <v>1.005334644494419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039490513663058</v>
+        <v>1.041869023302651</v>
       </c>
       <c r="J7">
-        <v>1.052065486669322</v>
+        <v>1.014801581206431</v>
       </c>
       <c r="K7">
-        <v>1.048229554441429</v>
+        <v>1.021881883102824</v>
       </c>
       <c r="L7">
-        <v>1.053619701167196</v>
+        <v>1.012760313038977</v>
       </c>
       <c r="M7">
-        <v>1.056452871610024</v>
+        <v>1.015366128661174</v>
       </c>
       <c r="N7">
-        <v>1.053559540333991</v>
+        <v>1.016242715851112</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044832222844307</v>
+        <v>0.9790032186281686</v>
       </c>
       <c r="D8">
-        <v>1.043685714961832</v>
+        <v>0.9993249179032221</v>
       </c>
       <c r="E8">
-        <v>1.048479068214722</v>
+        <v>0.987156668154614</v>
       </c>
       <c r="F8">
-        <v>1.051244843344679</v>
+        <v>0.9895612569750993</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038658486786227</v>
+        <v>1.035669238335571</v>
       </c>
       <c r="J8">
-        <v>1.049777844793085</v>
+        <v>1.001238534215908</v>
       </c>
       <c r="K8">
-        <v>1.046395926969798</v>
+        <v>1.010514041376186</v>
       </c>
       <c r="L8">
-        <v>1.051176163818944</v>
+        <v>0.9985134676507401</v>
       </c>
       <c r="M8">
-        <v>1.053934429659831</v>
+        <v>1.000884509261846</v>
       </c>
       <c r="N8">
-        <v>1.051268649743893</v>
+        <v>1.00266040777816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039912759611939</v>
+        <v>0.9463841045105724</v>
       </c>
       <c r="D9">
-        <v>1.039957771015921</v>
+        <v>0.974066888288349</v>
       </c>
       <c r="E9">
-        <v>1.04367454725389</v>
+        <v>0.9560847129125538</v>
       </c>
       <c r="F9">
-        <v>1.046312509637343</v>
+        <v>0.9580801984718244</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037154300038514</v>
+        <v>1.023063678778308</v>
       </c>
       <c r="J9">
-        <v>1.045687672574742</v>
+        <v>0.9739833928093145</v>
       </c>
       <c r="K9">
-        <v>1.043107491859093</v>
+        <v>0.9875952083953885</v>
       </c>
       <c r="L9">
-        <v>1.046812291251512</v>
+        <v>0.9699328738306846</v>
       </c>
       <c r="M9">
-        <v>1.049441809633731</v>
+        <v>0.9718920963009172</v>
       </c>
       <c r="N9">
-        <v>1.04717266901185</v>
+        <v>0.9753665609445604</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036591240342679</v>
+        <v>0.9209099894667219</v>
       </c>
       <c r="D10">
-        <v>1.037434378865257</v>
+        <v>0.9543679675662925</v>
       </c>
       <c r="E10">
-        <v>1.040431966687876</v>
+        <v>0.9318844926773292</v>
       </c>
       <c r="F10">
-        <v>1.042986855234296</v>
+        <v>0.9336057117898933</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036125024303177</v>
+        <v>1.013101195420453</v>
       </c>
       <c r="J10">
-        <v>1.042919065936154</v>
+        <v>0.9526553814214617</v>
       </c>
       <c r="K10">
-        <v>1.040874860388977</v>
+        <v>0.9696130778997143</v>
       </c>
       <c r="L10">
-        <v>1.043861804744564</v>
+        <v>0.9476030598418039</v>
       </c>
       <c r="M10">
-        <v>1.046407674935259</v>
+        <v>0.9492869636426056</v>
       </c>
       <c r="N10">
-        <v>1.044400130634273</v>
+        <v>0.9540082613341796</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035142497325875</v>
+        <v>0.9086281274493598</v>
       </c>
       <c r="D11">
-        <v>1.036332262681696</v>
+        <v>0.9448867534307879</v>
       </c>
       <c r="E11">
-        <v>1.039017979857524</v>
+        <v>0.9202387180618088</v>
       </c>
       <c r="F11">
-        <v>1.041537403082823</v>
+        <v>0.9218401635709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035672850496819</v>
+        <v>1.008273137836834</v>
       </c>
       <c r="J11">
-        <v>1.041709829458953</v>
+        <v>0.9423664596861177</v>
       </c>
       <c r="K11">
-        <v>1.039898134920864</v>
+        <v>0.9609286551183073</v>
       </c>
       <c r="L11">
-        <v>1.042573931198975</v>
+        <v>0.9368397264303563</v>
       </c>
       <c r="M11">
-        <v>1.045084099225069</v>
+        <v>0.9384036290883438</v>
       </c>
       <c r="N11">
-        <v>1.043189176902572</v>
+        <v>0.9437047281498154</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034602743288098</v>
+        <v>0.903831741407466</v>
       </c>
       <c r="D12">
-        <v>1.035921427873246</v>
+        <v>0.9411877430086079</v>
       </c>
       <c r="E12">
-        <v>1.038491224564911</v>
+        <v>0.9156947814419003</v>
       </c>
       <c r="F12">
-        <v>1.040997550469019</v>
+        <v>0.9172515136439262</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035503900027239</v>
+        <v>1.006384359172164</v>
       </c>
       <c r="J12">
-        <v>1.041259059261118</v>
+        <v>0.9383480033030001</v>
       </c>
       <c r="K12">
-        <v>1.039533800887574</v>
+        <v>0.9575356344955085</v>
       </c>
       <c r="L12">
-        <v>1.042093967679287</v>
+        <v>0.932637357365611</v>
       </c>
       <c r="M12">
-        <v>1.04459095221554</v>
+        <v>0.9341565016782675</v>
       </c>
       <c r="N12">
-        <v>1.042737766559352</v>
+        <v>0.9396805650977105</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03471859674529</v>
+        <v>0.9048721314696863</v>
       </c>
       <c r="D13">
-        <v>1.03600961999317</v>
+        <v>0.9419899122636446</v>
       </c>
       <c r="E13">
-        <v>1.038604285693088</v>
+        <v>0.9166802162473852</v>
       </c>
       <c r="F13">
-        <v>1.041113417573903</v>
+        <v>0.918246551081403</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035540185701462</v>
+        <v>1.006794195771384</v>
       </c>
       <c r="J13">
-        <v>1.04135582434891</v>
+        <v>0.9392196572034265</v>
       </c>
       <c r="K13">
-        <v>1.039612021794556</v>
+        <v>0.958271673755847</v>
       </c>
       <c r="L13">
-        <v>1.042196994138876</v>
+        <v>0.9335488418138775</v>
       </c>
       <c r="M13">
-        <v>1.044696803053206</v>
+        <v>0.9350775965374766</v>
       </c>
       <c r="N13">
-        <v>1.042834669064668</v>
+        <v>0.940553456846656</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035097914549701</v>
+        <v>0.9082367702462046</v>
       </c>
       <c r="D14">
-        <v>1.036298332943717</v>
+        <v>0.9445848541373136</v>
       </c>
       <c r="E14">
-        <v>1.038974469737545</v>
+        <v>0.9198678730542144</v>
       </c>
       <c r="F14">
-        <v>1.041492808782053</v>
+        <v>0.9214656275932379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035658905359446</v>
+        <v>1.008119087551395</v>
       </c>
       <c r="J14">
-        <v>1.041672601658599</v>
+        <v>0.9420385805423857</v>
       </c>
       <c r="K14">
-        <v>1.039868050469332</v>
+        <v>0.9606518302401166</v>
       </c>
       <c r="L14">
-        <v>1.042534289953701</v>
+        <v>0.9364968134189002</v>
       </c>
       <c r="M14">
-        <v>1.045043366639303</v>
+        <v>0.9380570205445967</v>
       </c>
       <c r="N14">
-        <v>1.043151896234472</v>
+        <v>0.9433763833800912</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035331407793386</v>
+        <v>0.9102770913635668</v>
       </c>
       <c r="D15">
-        <v>1.03647602396822</v>
+        <v>0.9461589454287059</v>
       </c>
       <c r="E15">
-        <v>1.039202347201084</v>
+        <v>0.9218014219300514</v>
       </c>
       <c r="F15">
-        <v>1.041726369164957</v>
+        <v>0.9234185030656098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035731920338691</v>
+        <v>1.008922091750995</v>
       </c>
       <c r="J15">
-        <v>1.041867564550498</v>
+        <v>0.9437479510275624</v>
       </c>
       <c r="K15">
-        <v>1.040025593759344</v>
+        <v>0.9620949861996557</v>
       </c>
       <c r="L15">
-        <v>1.042741897039011</v>
+        <v>0.9382846170782778</v>
       </c>
       <c r="M15">
-        <v>1.045256694226292</v>
+        <v>0.9398641763518777</v>
       </c>
       <c r="N15">
-        <v>1.04334713599604</v>
+        <v>0.9450881813674245</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03668716324626</v>
+        <v>0.9216951539338447</v>
       </c>
       <c r="D16">
-        <v>1.037507320015125</v>
+        <v>0.9549745070249236</v>
       </c>
       <c r="E16">
-        <v>1.040525595254721</v>
+        <v>0.9326294894400549</v>
       </c>
       <c r="F16">
-        <v>1.043082848185053</v>
+        <v>0.93435863041369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036154895325005</v>
+        <v>1.013409379938931</v>
       </c>
       <c r="J16">
-        <v>1.042999096078111</v>
+        <v>0.9533130583935121</v>
       </c>
       <c r="K16">
-        <v>1.040939469164661</v>
+        <v>0.9701680172862495</v>
       </c>
       <c r="L16">
-        <v>1.043947056108943</v>
+        <v>0.948291243243911</v>
       </c>
       <c r="M16">
-        <v>1.046495306653939</v>
+        <v>0.9499830892334266</v>
       </c>
       <c r="N16">
-        <v>1.044480274428211</v>
+        <v>0.9546668722829672</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037534746951478</v>
+        <v>0.9284946166493021</v>
       </c>
       <c r="D17">
-        <v>1.038151663367</v>
+        <v>0.960228958511673</v>
       </c>
       <c r="E17">
-        <v>1.04135294355766</v>
+        <v>0.9390835486776121</v>
       </c>
       <c r="F17">
-        <v>1.043931176938158</v>
+        <v>0.9408826646075701</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03641846615495</v>
+        <v>1.016075565255742</v>
       </c>
       <c r="J17">
-        <v>1.043706059261809</v>
+        <v>0.9590078760624037</v>
       </c>
       <c r="K17">
-        <v>1.041510022206393</v>
+        <v>0.9749722043001194</v>
       </c>
       <c r="L17">
-        <v>1.044700234296201</v>
+        <v>0.9542511850652654</v>
       </c>
       <c r="M17">
-        <v>1.047269607982832</v>
+        <v>0.9560132127475222</v>
       </c>
       <c r="N17">
-        <v>1.045188241580719</v>
+        <v>0.9603697772461529</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038028118090819</v>
+        <v>0.932343715761862</v>
       </c>
       <c r="D18">
-        <v>1.038526586685194</v>
+        <v>0.9632048214840121</v>
       </c>
       <c r="E18">
-        <v>1.041834567068559</v>
+        <v>0.9427390406843649</v>
       </c>
       <c r="F18">
-        <v>1.044425086829593</v>
+        <v>0.9445788795585216</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036571577533758</v>
+        <v>1.017582588324905</v>
       </c>
       <c r="J18">
-        <v>1.044117417223339</v>
+        <v>0.9622310636808697</v>
       </c>
       <c r="K18">
-        <v>1.041841855499204</v>
+        <v>0.9776904243734772</v>
       </c>
       <c r="L18">
-        <v>1.045138560204192</v>
+        <v>0.9576252270145391</v>
       </c>
       <c r="M18">
-        <v>1.04772030464315</v>
+        <v>0.9594281198280841</v>
       </c>
       <c r="N18">
-        <v>1.045600183717738</v>
+        <v>0.9635975421607421</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03819617501966</v>
+        <v>0.9336374759218707</v>
       </c>
       <c r="D19">
-        <v>1.038654272388935</v>
+        <v>0.9642052745313191</v>
       </c>
       <c r="E19">
-        <v>1.041998627676319</v>
+        <v>0.9439680339693137</v>
       </c>
       <c r="F19">
-        <v>1.044593345058711</v>
+        <v>0.9458217445819708</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03662367907622</v>
+        <v>1.018088733323896</v>
       </c>
       <c r="J19">
-        <v>1.044257511001683</v>
+        <v>0.9633143306848969</v>
       </c>
       <c r="K19">
-        <v>1.041954840187489</v>
+        <v>0.9786038240923072</v>
       </c>
       <c r="L19">
-        <v>1.045287851361558</v>
+        <v>0.9587593282943255</v>
       </c>
       <c r="M19">
-        <v>1.047873822383485</v>
+        <v>0.9605761448509854</v>
       </c>
       <c r="N19">
-        <v>1.045740476445315</v>
+        <v>0.9646823475281674</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037443914067536</v>
+        <v>0.9277774732373807</v>
       </c>
       <c r="D20">
-        <v>1.038082625943931</v>
+        <v>0.9596746172200605</v>
       </c>
       <c r="E20">
-        <v>1.041264276000148</v>
+        <v>0.9384026297336543</v>
       </c>
       <c r="F20">
-        <v>1.043840253325071</v>
+        <v>0.9401942480219492</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036390252276815</v>
+        <v>1.015794596504922</v>
       </c>
       <c r="J20">
-        <v>1.043630312712999</v>
+        <v>0.958407298255656</v>
       </c>
       <c r="K20">
-        <v>1.04144890688062</v>
+        <v>0.9744656438639693</v>
       </c>
       <c r="L20">
-        <v>1.044619528136277</v>
+        <v>0.9536225634395955</v>
       </c>
       <c r="M20">
-        <v>1.047186630339562</v>
+        <v>0.9553770690307007</v>
       </c>
       <c r="N20">
-        <v>1.045112387463121</v>
+        <v>0.9597683465500326</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034986260199809</v>
+        <v>0.9072529001061125</v>
       </c>
       <c r="D21">
-        <v>1.03621335477315</v>
+        <v>0.9438259437698012</v>
       </c>
       <c r="E21">
-        <v>1.038865502583414</v>
+        <v>0.9189356378828478</v>
       </c>
       <c r="F21">
-        <v>1.041381128247341</v>
+        <v>0.9205241469475984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035623972935534</v>
+        <v>1.007731755066398</v>
       </c>
       <c r="J21">
-        <v>1.041579363307003</v>
+        <v>0.9412142903063782</v>
       </c>
       <c r="K21">
-        <v>1.039792699056955</v>
+        <v>0.9599558722068843</v>
       </c>
       <c r="L21">
-        <v>1.042435008986732</v>
+        <v>0.9356347500075864</v>
       </c>
       <c r="M21">
-        <v>1.044941354394293</v>
+        <v>0.9371857008934625</v>
       </c>
       <c r="N21">
-        <v>1.043058525473722</v>
+        <v>0.9425509225574014</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033431601286616</v>
+        <v>0.8929540330003213</v>
       </c>
       <c r="D22">
-        <v>1.035029605094553</v>
+        <v>0.9328073921465884</v>
       </c>
       <c r="E22">
-        <v>1.037348378816584</v>
+        <v>0.9053982758665861</v>
       </c>
       <c r="F22">
-        <v>1.039826499175029</v>
+        <v>0.9068577368111415</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035136428488244</v>
+        <v>1.002095282178709</v>
       </c>
       <c r="J22">
-        <v>1.040280537328251</v>
+        <v>0.9292346921219937</v>
       </c>
       <c r="K22">
-        <v>1.038742478210631</v>
+        <v>0.9498387782511908</v>
       </c>
       <c r="L22">
-        <v>1.041052294007216</v>
+        <v>0.9231095863670055</v>
       </c>
       <c r="M22">
-        <v>1.043520889843572</v>
+        <v>0.9245314408504396</v>
       </c>
       <c r="N22">
-        <v>1.041757855013103</v>
+        <v>0.9305543119695158</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034256666068873</v>
+        <v>0.9006870643216398</v>
       </c>
       <c r="D23">
-        <v>1.035657948072766</v>
+        <v>0.9387637652970084</v>
       </c>
       <c r="E23">
-        <v>1.03815349593183</v>
+        <v>0.9127168782385636</v>
       </c>
       <c r="F23">
-        <v>1.040651456828984</v>
+        <v>0.9142449061989668</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035395436510987</v>
+        <v>1.005145149264517</v>
       </c>
       <c r="J23">
-        <v>1.040969966436188</v>
+        <v>0.9357133479596602</v>
       </c>
       <c r="K23">
-        <v>1.039300075422986</v>
+        <v>0.9553107305323868</v>
       </c>
       <c r="L23">
-        <v>1.04178618617516</v>
+        <v>0.9298825157721113</v>
       </c>
       <c r="M23">
-        <v>1.0442747510406</v>
+        <v>0.9313729388660887</v>
       </c>
       <c r="N23">
-        <v>1.042448263189452</v>
+        <v>0.9370421682415842</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037484960656924</v>
+        <v>0.9281018774900117</v>
       </c>
       <c r="D24">
-        <v>1.038113823797872</v>
+        <v>0.9599253726996739</v>
       </c>
       <c r="E24">
-        <v>1.041304344000864</v>
+        <v>0.9387106416614557</v>
       </c>
       <c r="F24">
-        <v>1.043881340589297</v>
+        <v>0.9405056480912306</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03640300284441</v>
+        <v>1.015921701600185</v>
       </c>
       <c r="J24">
-        <v>1.043664542411295</v>
+        <v>0.9586789752011418</v>
       </c>
       <c r="K24">
-        <v>1.041476525232442</v>
+        <v>0.9746947939569436</v>
       </c>
       <c r="L24">
-        <v>1.044655998833693</v>
+        <v>0.9539069237735052</v>
       </c>
       <c r="M24">
-        <v>1.047224127268107</v>
+        <v>0.9556648284873955</v>
       </c>
       <c r="N24">
-        <v>1.045146665771515</v>
+        <v>0.960040409307943</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041191756574579</v>
+        <v>0.9553771846770766</v>
       </c>
       <c r="D25">
-        <v>1.040928108952249</v>
+        <v>0.9810286106927392</v>
       </c>
       <c r="E25">
-        <v>1.044923430502456</v>
+        <v>0.9646420814410563</v>
       </c>
       <c r="F25">
-        <v>1.047594059376801</v>
+        <v>0.9667434137563035</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037547769186421</v>
+        <v>1.026559038170885</v>
       </c>
       <c r="J25">
-        <v>1.046752294205976</v>
+        <v>0.9815056080089819</v>
       </c>
       <c r="K25">
-        <v>1.043964608781137</v>
+        <v>0.9939287498949626</v>
       </c>
       <c r="L25">
-        <v>1.0479475608015</v>
+        <v>0.9778152582887411</v>
       </c>
       <c r="M25">
-        <v>1.050609978817247</v>
+        <v>0.9798809098593501</v>
       </c>
       <c r="N25">
-        <v>1.048238802527915</v>
+        <v>0.9828994585526214</v>
       </c>
     </row>
   </sheetData>
